--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -242,7 +242,7 @@
             <xdr:cNvPr id="37" name="Rectangle 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -289,7 +289,7 @@
             <xdr:cNvPr id="38" name="Rectangle 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -336,7 +336,7 @@
             <xdr:cNvPr id="39" name="Rectangle 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -383,7 +383,7 @@
             <xdr:cNvPr id="40" name="Rectangle 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -430,7 +430,7 @@
             <xdr:cNvPr id="41" name="Rectangle 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -477,7 +477,7 @@
             <xdr:cNvPr id="42" name="Rectangle 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -524,7 +524,7 @@
             <xdr:cNvPr id="43" name="Rectangle 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -571,7 +571,7 @@
             <xdr:cNvPr id="44" name="Rectangle 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -618,7 +618,7 @@
             <xdr:cNvPr id="46" name="Rectangle 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -666,7 +666,7 @@
           <xdr:cNvPr id="48" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -713,7 +713,7 @@
           <xdr:cNvPr id="49" name="Rectangle 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -760,7 +760,7 @@
           <xdr:cNvPr id="50" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -868,7 +868,7 @@
           <xdr:cNvPr id="55" name="Rectangle 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -944,7 +944,7 @@
           <xdr:cNvPr id="59" name="Rectangle 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1052,7 +1052,7 @@
           <xdr:cNvPr id="69" name="Rectangle 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1099,7 +1099,7 @@
           <xdr:cNvPr id="70" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1146,7 +1146,7 @@
           <xdr:cNvPr id="71" name="Rectangle 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1193,7 +1193,7 @@
           <xdr:cNvPr id="72" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1240,7 +1240,7 @@
           <xdr:cNvPr id="73" name="Rectangle 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
           <xdr:cNvPr id="74" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1334,7 +1334,7 @@
           <xdr:cNvPr id="75" name="Rectangle 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1410,7 +1410,7 @@
           <xdr:cNvPr id="79" name="Rectangle 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1457,7 +1457,7 @@
           <xdr:cNvPr id="80" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
           <xdr:cNvPr id="81" name="Rectangle 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1676,7 +1676,7 @@
           <xdr:cNvPr id="114" name="Rectangle 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
           <xdr:cNvPr id="115" name="Rectangle 114">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1770,7 +1770,7 @@
           <xdr:cNvPr id="116" name="Rectangle 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
           <xdr:cNvPr id="118" name="Rectangle 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1893,7 +1893,7 @@
           <xdr:cNvPr id="119" name="Rectangle 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1940,7 +1940,7 @@
           <xdr:cNvPr id="120" name="Rectangle 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2110,7 +2110,7 @@
           <xdr:cNvPr id="130" name="Rectangle 129">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2157,7 +2157,7 @@
           <xdr:cNvPr id="131" name="Rectangle 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2204,7 +2204,7 @@
           <xdr:cNvPr id="132" name="Rectangle 131">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
           <xdr:cNvPr id="133" name="Rectangle 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2298,7 +2298,7 @@
           <xdr:cNvPr id="134" name="Rectangle 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2345,7 +2345,7 @@
           <xdr:cNvPr id="135" name="Rectangle 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2392,7 +2392,7 @@
           <xdr:cNvPr id="136" name="Rectangle 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2439,7 +2439,7 @@
           <xdr:cNvPr id="137" name="Rectangle 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2562,7 +2562,7 @@
           <xdr:cNvPr id="144" name="Rectangle 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2609,7 +2609,7 @@
           <xdr:cNvPr id="145" name="Rectangle 144">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2656,7 +2656,7 @@
           <xdr:cNvPr id="146" name="Rectangle 145">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2703,7 +2703,7 @@
           <xdr:cNvPr id="147" name="Rectangle 146">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2750,7 +2750,7 @@
           <xdr:cNvPr id="148" name="Rectangle 147">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2797,7 +2797,7 @@
           <xdr:cNvPr id="149" name="Rectangle 148">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2844,7 +2844,7 @@
           <xdr:cNvPr id="150" name="Rectangle 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2920,7 +2920,7 @@
           <xdr:cNvPr id="152" name="Rectangle 151">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3077,7 +3077,7 @@
           <xdr:cNvPr id="166" name="Rectangle 165">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3124,7 +3124,7 @@
           <xdr:cNvPr id="167" name="Rectangle 166">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3171,7 +3171,7 @@
           <xdr:cNvPr id="168" name="Rectangle 167">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3218,7 +3218,7 @@
           <xdr:cNvPr id="169" name="Rectangle 168">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3343,7 +3343,7 @@
           <xdr:cNvPr id="177" name="Rectangle 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3390,7 +3390,7 @@
           <xdr:cNvPr id="178" name="Rectangle 177">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3437,7 +3437,7 @@
           <xdr:cNvPr id="179" name="Rectangle 178">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3484,7 +3484,7 @@
           <xdr:cNvPr id="180" name="Rectangle 179">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3531,7 +3531,7 @@
           <xdr:cNvPr id="181" name="Rectangle 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3578,7 +3578,7 @@
           <xdr:cNvPr id="182" name="Rectangle 181">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3701,7 +3701,7 @@
           <xdr:cNvPr id="187" name="Rectangle 186">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3748,7 +3748,7 @@
           <xdr:cNvPr id="188" name="Rectangle 187">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3795,7 +3795,7 @@
           <xdr:cNvPr id="189" name="Rectangle 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3842,7 +3842,7 @@
           <xdr:cNvPr id="190" name="Rectangle 189">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3889,7 +3889,7 @@
           <xdr:cNvPr id="191" name="Rectangle 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3936,7 +3936,7 @@
           <xdr:cNvPr id="192" name="Rectangle 191">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3999,7 +3999,7 @@
         <xdr:cNvPr id="201" name="Rectangle 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4061,7 @@
         <xdr:cNvPr id="209" name="Rectangle 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4230,7 @@
           <xdr:cNvPr id="215" name="Rectangle 214">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4277,7 +4277,7 @@
           <xdr:cNvPr id="216" name="Rectangle 215">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4324,7 +4324,7 @@
           <xdr:cNvPr id="218" name="Rectangle 217">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4371,7 +4371,7 @@
           <xdr:cNvPr id="219" name="Rectangle 218">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4409,17 +4409,8 @@
               <a:rPr lang="en-US">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Result VARCHAR(15)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> NOT NULL CK</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+              <a:t>ChargeDate DATE NOT NULL</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4491,7 +4482,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4539,14 +4530,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66687</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>442964</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66687</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4555,7 +4546,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14354175" y="2733687"/>
+          <a:off x="14354175" y="3209937"/>
           <a:ext cx="2547989" cy="476250"/>
           <a:chOff x="15370978" y="1819275"/>
           <a:chExt cx="2687767" cy="476250"/>
@@ -4566,7 +4557,7 @@
           <xdr:cNvPr id="227" name="Rectangle 226">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4708,7 +4699,7 @@
         <xdr:cNvPr id="233" name="Rectangle 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,6 +4882,141 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100058</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11072858" y="3095637"/>
+          <a:ext cx="3281316" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ChargeTotal MONEY NOT NULL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100058</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11072858" y="3343287"/>
+          <a:ext cx="3281316" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Result BIT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> NOT NULL CK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5185,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H8:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTCStudent\Desktop\OnlineService\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="15180" windowHeight="4500"/>
   </bookViews>
@@ -15,8 +20,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -82,7 +98,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 31"/>
+        <xdr:cNvPr id="1025" name="Text Box 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -200,613 +222,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>414385</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7424783" y="5610237"/>
-          <a:ext cx="2743202" cy="2933700"/>
-          <a:chOff x="2876549" y="5514975"/>
-          <a:chExt cx="2743202" cy="2933700"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2876549" y="5514975"/>
-            <a:ext cx="2743202" cy="2200275"/>
-            <a:chOff x="1828799" y="8763000"/>
-            <a:chExt cx="2743202" cy="2200275"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="Rectangle 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828799" y="8763000"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-                <a:t>Members</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="Rectangle 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828799" y="9010650"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>MemberID VARCHAR(10) PK</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="Rectangle 38">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828799" y="9248775"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>FirstName VARCHAR(20) NOT NULL</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="Rectangle 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828799" y="9496425"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>MiddleName VARCHAR(20) NULL</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="Rectangle 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828800" y="9734550"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>LastName VARCHAR(20) NOT NULL</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="Rectangle 41">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828800" y="9982200"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>Gender VARCHAR(2) NOT NULL</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="Rectangle 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828800" y="10229850"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>EMail VARCHAR(70) NOT NULL</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="Rectangle 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828800" y="10467975"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>Phone VARCHAR(15) NOT NULL</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="Rectangle 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1828800" y="10715625"/>
-              <a:ext cx="2743201" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                <a:t>BirthDate DATE NOT NULL CK</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="Rectangle 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2876549" y="7715250"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>JoinDate DATE NOT NULL CK</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Rectangle 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2876549" y="7962900"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>Current BIT NOT NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Rectangle 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2876549" y="8201025"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>Notes VARCHAR(MAX) NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>414384</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -820,7 +235,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1040" name="Group 1039"/>
+        <xdr:cNvPr id="1040" name="Group 1039">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -833,7 +254,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Straight Connector 10"/>
+          <xdr:cNvPr id="11" name="Straight Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="48" idx="3"/>
             <a:endCxn id="55" idx="1"/>
@@ -868,7 +295,7 @@
           <xdr:cNvPr id="55" name="Rectangle 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -928,7 +355,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1038" name="Group 1037"/>
+        <xdr:cNvPr id="1038" name="Group 1037">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -944,7 +377,7 @@
           <xdr:cNvPr id="59" name="Rectangle 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -988,7 +421,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="Straight Connector 33"/>
+          <xdr:cNvPr id="34" name="Straight Connector 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="46" idx="3"/>
             <a:endCxn id="59" idx="1"/>
@@ -1036,7 +475,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="65" name="Group 64"/>
+        <xdr:cNvPr id="65" name="Group 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1052,7 +497,7 @@
           <xdr:cNvPr id="69" name="Rectangle 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1099,7 +544,7 @@
           <xdr:cNvPr id="70" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1146,7 +591,7 @@
           <xdr:cNvPr id="71" name="Rectangle 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1193,7 +638,7 @@
           <xdr:cNvPr id="72" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1240,7 +685,7 @@
           <xdr:cNvPr id="73" name="Rectangle 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1287,7 +732,7 @@
           <xdr:cNvPr id="74" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1334,7 +779,7 @@
           <xdr:cNvPr id="75" name="Rectangle 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1394,7 +839,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="Group 77"/>
+        <xdr:cNvPr id="78" name="Group 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1410,7 +861,7 @@
           <xdr:cNvPr id="79" name="Rectangle 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1457,7 +908,7 @@
           <xdr:cNvPr id="80" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1504,7 +955,7 @@
           <xdr:cNvPr id="81" name="Rectangle 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1564,7 +1015,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1026" name="Elbow Connector 1025"/>
+        <xdr:cNvPr id="1026" name="Elbow Connector 1025">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="80" idx="3"/>
           <a:endCxn id="38" idx="1"/>
@@ -1611,7 +1068,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1028" name="Elbow Connector 1027"/>
+        <xdr:cNvPr id="1028" name="Elbow Connector 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="70" idx="1"/>
           <a:endCxn id="81" idx="1"/>
@@ -1649,23 +1112,29 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214358</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152412</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>309609</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123837</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="113" name="Group 112"/>
+        <xdr:cNvPr id="113" name="Group 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7529558" y="8915412"/>
+          <a:off x="7529558" y="9363087"/>
           <a:ext cx="2533651" cy="733425"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="733425"/>
@@ -1676,7 +1145,7 @@
           <xdr:cNvPr id="114" name="Rectangle 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1723,7 +1192,7 @@
           <xdr:cNvPr id="115" name="Rectangle 114">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1770,7 +1239,7 @@
           <xdr:cNvPr id="116" name="Rectangle 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1818,24 +1287,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>214358</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152412</xdr:rowOff>
+      <xdr:colOff>223883</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>309609</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>123837</xdr:rowOff>
+      <xdr:colOff>319134</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9537</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="Group 116"/>
+        <xdr:cNvPr id="117" name="Group 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7529558" y="10058412"/>
+          <a:off x="7539083" y="10706112"/>
           <a:ext cx="2533651" cy="733425"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="733425"/>
@@ -1846,7 +1321,7 @@
           <xdr:cNvPr id="118" name="Rectangle 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1893,7 +1368,7 @@
           <xdr:cNvPr id="119" name="Rectangle 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1940,7 +1415,7 @@
           <xdr:cNvPr id="120" name="Rectangle 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1989,18 +1464,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152412</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1033" name="Straight Connector 1032"/>
+        <xdr:cNvPr id="1033" name="Straight Connector 1032">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="50" idx="2"/>
           <a:endCxn id="114" idx="0"/>
@@ -2008,8 +1489,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8929734" y="8543937"/>
-          <a:ext cx="0" cy="371475"/>
+          <a:off x="8796384" y="8791587"/>
+          <a:ext cx="0" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2036,18 +1517,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123837</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152412</xdr:rowOff>
+      <xdr:colOff>271509</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38112</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1035" name="Straight Connector 1034"/>
+        <xdr:cNvPr id="1035" name="Straight Connector 1034">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="116" idx="2"/>
           <a:endCxn id="118" idx="0"/>
@@ -2055,8 +1542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8929734" y="9648837"/>
-          <a:ext cx="0" cy="409575"/>
+          <a:off x="8796384" y="10096512"/>
+          <a:ext cx="9525" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2094,7 +1581,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="126" name="Group 125"/>
+        <xdr:cNvPr id="126" name="Group 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2110,7 +1603,7 @@
           <xdr:cNvPr id="130" name="Rectangle 129">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2157,7 +1650,7 @@
           <xdr:cNvPr id="131" name="Rectangle 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2204,7 +1697,7 @@
           <xdr:cNvPr id="132" name="Rectangle 131">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2251,7 +1744,7 @@
           <xdr:cNvPr id="133" name="Rectangle 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2298,7 +1791,7 @@
           <xdr:cNvPr id="134" name="Rectangle 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2345,7 +1838,7 @@
           <xdr:cNvPr id="135" name="Rectangle 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2392,7 +1885,7 @@
           <xdr:cNvPr id="136" name="Rectangle 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2439,7 +1932,7 @@
           <xdr:cNvPr id="137" name="Rectangle 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2499,7 +1992,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1037" name="Elbow Connector 1036"/>
+        <xdr:cNvPr id="1037" name="Elbow Connector 1036">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
           <a:endCxn id="132" idx="1"/>
@@ -2546,7 +2045,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="143" name="Group 142"/>
+        <xdr:cNvPr id="143" name="Group 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2562,7 +2067,7 @@
           <xdr:cNvPr id="144" name="Rectangle 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2609,7 +2114,7 @@
           <xdr:cNvPr id="145" name="Rectangle 144">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2656,7 +2161,7 @@
           <xdr:cNvPr id="146" name="Rectangle 145">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2703,7 +2208,7 @@
           <xdr:cNvPr id="147" name="Rectangle 146">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2750,7 +2255,7 @@
           <xdr:cNvPr id="148" name="Rectangle 147">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2797,7 +2302,7 @@
           <xdr:cNvPr id="149" name="Rectangle 148">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2844,7 +2349,7 @@
           <xdr:cNvPr id="150" name="Rectangle 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2893,26 +2398,32 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>604884</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123837</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>604890</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171462</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="151" name="Group 150"/>
+        <xdr:cNvPr id="151" name="Group 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10358484" y="4505337"/>
-          <a:ext cx="2438406" cy="476250"/>
-          <a:chOff x="11316849" y="3743325"/>
-          <a:chExt cx="2572172" cy="476250"/>
+          <a:off x="10358484" y="4238637"/>
+          <a:ext cx="2457456" cy="504825"/>
+          <a:chOff x="11296754" y="3743325"/>
+          <a:chExt cx="2592267" cy="504825"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2920,7 +2431,7 @@
           <xdr:cNvPr id="152" name="Rectangle 151">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2964,16 +2475,22 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="153" name="Straight Connector 152"/>
+          <xdr:cNvPr id="153" name="Straight Connector 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="150" idx="3"/>
             <a:endCxn id="152" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11316849" y="3981450"/>
-            <a:ext cx="276906" cy="0"/>
+          <a:xfrm flipV="1">
+            <a:off x="11296754" y="3981450"/>
+            <a:ext cx="297001" cy="266700"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -3012,7 +2529,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Elbow Connector 96"/>
+        <xdr:cNvPr id="97" name="Elbow Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="148" idx="1"/>
           <a:endCxn id="38" idx="1"/>
@@ -3048,25 +2571,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>271509</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404859</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>404859</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538209</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142887</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="165" name="Group 164"/>
+        <xdr:cNvPr id="165" name="Group 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7586709" y="1381137"/>
+          <a:off x="2233659" y="8115312"/>
           <a:ext cx="2571750" cy="981075"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="981075"/>
@@ -3077,7 +2606,7 @@
           <xdr:cNvPr id="166" name="Rectangle 165">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3124,7 +2653,7 @@
           <xdr:cNvPr id="167" name="Rectangle 166">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3171,7 +2700,7 @@
           <xdr:cNvPr id="168" name="Rectangle 167">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3218,7 +2747,7 @@
           <xdr:cNvPr id="169" name="Rectangle 168">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3265,33 +2794,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>404859</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38112</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538209</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>604883</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109583</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104787</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Elbow Connector 99"/>
+        <xdr:cNvPr id="100" name="Elbow Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="167" idx="3"/>
-          <a:endCxn id="146" idx="3"/>
+          <a:endCxn id="112" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10310859" y="1752612"/>
-          <a:ext cx="200024" cy="2009775"/>
+        <a:xfrm flipV="1">
+          <a:off x="4805409" y="8181987"/>
+          <a:ext cx="2619374" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 214286"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3327,7 +2862,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="176" name="Group 175"/>
+        <xdr:cNvPr id="176" name="Group 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3343,7 +2884,7 @@
           <xdr:cNvPr id="177" name="Rectangle 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3390,7 +2931,7 @@
           <xdr:cNvPr id="178" name="Rectangle 177">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3437,7 +2978,7 @@
           <xdr:cNvPr id="179" name="Rectangle 178">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3484,7 +3025,7 @@
           <xdr:cNvPr id="180" name="Rectangle 179">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3531,7 +3072,7 @@
           <xdr:cNvPr id="181" name="Rectangle 180">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3578,7 +3119,7 @@
           <xdr:cNvPr id="182" name="Rectangle 181">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3638,7 +3179,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Elbow Connector 102"/>
+        <xdr:cNvPr id="103" name="Elbow Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="179" idx="3"/>
           <a:endCxn id="38" idx="1"/>
@@ -3685,7 +3232,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="186" name="Group 185"/>
+        <xdr:cNvPr id="186" name="Group 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3701,7 +3254,7 @@
           <xdr:cNvPr id="187" name="Rectangle 186">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3748,7 +3301,7 @@
           <xdr:cNvPr id="188" name="Rectangle 187">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3795,7 +3348,7 @@
           <xdr:cNvPr id="189" name="Rectangle 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3842,7 +3395,7 @@
           <xdr:cNvPr id="190" name="Rectangle 189">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3889,7 +3442,7 @@
           <xdr:cNvPr id="191" name="Rectangle 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3936,7 +3489,7 @@
           <xdr:cNvPr id="192" name="Rectangle 191">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3999,7 +3552,7 @@
         <xdr:cNvPr id="201" name="Rectangle 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +3614,7 @@
         <xdr:cNvPr id="209" name="Rectangle 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4120,7 +3673,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="Elbow Connector 110"/>
+        <xdr:cNvPr id="111" name="Elbow Connector 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="209" idx="3"/>
           <a:endCxn id="190" idx="1"/>
@@ -4167,7 +3726,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="Elbow Connector 120"/>
+        <xdr:cNvPr id="121" name="Elbow Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="209" idx="3"/>
           <a:endCxn id="192" idx="1"/>
@@ -4201,224 +3766,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>100058</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="214" name="Group 213"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11072858" y="2105037"/>
-          <a:ext cx="3281317" cy="990600"/>
-          <a:chOff x="1828799" y="8763000"/>
-          <a:chExt cx="2743202" cy="990600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="Rectangle 214">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="8763000"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-              <a:t>AccountCharges</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="Rectangle 215">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="9010650"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>ChargeID INT ID PK</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="Rectangle 217">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="9258300"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>TranID INT FK NOT NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="Rectangle 218">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828800" y="9505950"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>ChargeDate DATE NOT NULL</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>604883</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -4432,7 +3779,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="Elbow Connector 122"/>
+        <xdr:cNvPr id="123" name="Elbow Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="145" idx="3"/>
           <a:endCxn id="218" idx="1"/>
@@ -4482,7 +3835,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4528,114 +3881,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>442964</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66687</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="226" name="Group 225"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14354175" y="3209937"/>
-          <a:ext cx="2547989" cy="476250"/>
-          <a:chOff x="15370978" y="1819275"/>
-          <a:chExt cx="2687767" cy="476250"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="227" name="Rectangle 226">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15763477" y="1819275"/>
-            <a:ext cx="2295268" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>Check (IN ('Approved', 'Declined', 'Invalid Card'))</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="228" name="Straight Connector 227"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="219" idx="3"/>
-            <a:endCxn id="227" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15370978" y="2057400"/>
-            <a:ext cx="392499" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>530508</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -4649,7 +3894,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="231" name="Elbow Connector 230"/>
+        <xdr:cNvPr id="231" name="Elbow Connector 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="201" idx="3"/>
           <a:endCxn id="190" idx="1"/>
@@ -4699,7 +3950,7 @@
         <xdr:cNvPr id="233" name="Rectangle 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4758,7 +4009,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name="Elbow Connector 233"/>
+        <xdr:cNvPr id="234" name="Elbow Connector 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="233" idx="3"/>
           <a:endCxn id="190" idx="1"/>
@@ -4805,7 +4062,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="Elbow Connector 235"/>
+        <xdr:cNvPr id="236" name="Elbow Connector 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="233" idx="3"/>
           <a:endCxn id="191" idx="1"/>
@@ -4852,7 +4115,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name="Elbow Connector 240"/>
+        <xdr:cNvPr id="241" name="Elbow Connector 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="189" idx="3"/>
           <a:endCxn id="38" idx="1"/>
@@ -4886,23 +4155,1987 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109583</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414385</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28587</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFDF5B8-335F-4847-B26E-A4F119DFABD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7424783" y="5610237"/>
+          <a:ext cx="2743202" cy="3181350"/>
+          <a:chOff x="7424783" y="5610237"/>
+          <a:chExt cx="2743202" cy="3181350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7424783" y="5610237"/>
+            <a:ext cx="2743202" cy="3181350"/>
+            <a:chOff x="2876549" y="5514975"/>
+            <a:chExt cx="2743202" cy="3181350"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="3" name="Group 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="2876549" y="5514975"/>
+              <a:ext cx="2743202" cy="2200275"/>
+              <a:chOff x="1828799" y="8763000"/>
+              <a:chExt cx="2743202" cy="2200275"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="37" name="Rectangle 36">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828799" y="8763000"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                  <a:t>Members</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="38" name="Rectangle 37">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828799" y="9010650"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>MemberID VARCHAR(10) PK</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="Rectangle 38">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828799" y="9248775"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>FirstName VARCHAR(20) NOT NULL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="Rectangle 39">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828799" y="9496425"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>MiddleName VARCHAR(20) NULL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="Rectangle 40">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828800" y="9734550"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>LastName VARCHAR(20) NOT NULL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="42" name="Rectangle 41">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828800" y="9982200"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>Gender VARCHAR(2) NOT NULL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="43" name="Rectangle 42">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828800" y="10229850"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>EMail VARCHAR(70) NOT NULL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="44" name="Rectangle 43">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828800" y="10467975"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>Phone VARCHAR(15) NOT NULL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="46" name="Rectangle 45">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1828800" y="10715625"/>
+                <a:ext cx="2743201" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t>BirthDate DATE NOT NULL CK</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Rectangle 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2876549" y="7715250"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>JoinDate DATE NOT NULL CK</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="Rectangle 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2876549" y="8210550"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>Current BIT NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="Rectangle 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2876549" y="8448675"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>Notes VARCHAR(MAX) NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="Rectangle 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9C7671-D0B0-479E-B119-5C66C562D23B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7424783" y="8058162"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>SubscriptionLevel INT NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>100058</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19062</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1791AA90-C287-435A-BEED-15E9E9B30AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11072858" y="2105037"/>
+          <a:ext cx="3281317" cy="1724025"/>
+          <a:chOff x="11072858" y="2105037"/>
+          <a:chExt cx="3281317" cy="1724025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="214" name="Group 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11072858" y="2105037"/>
+            <a:ext cx="3281317" cy="990600"/>
+            <a:chOff x="1828799" y="8763000"/>
+            <a:chExt cx="2743202" cy="990600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="215" name="Rectangle 214">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="8763000"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t>AccountCharges</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="216" name="Rectangle 215">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9010650"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>ChargeID INT ID PK</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="218" name="Rectangle 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9258300"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>TranID INT FK NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="219" name="Rectangle 218">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="9505950"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>ChargeDate DATE NOT NULL</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="Rectangle 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11072858" y="3333762"/>
+            <a:ext cx="3281316" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AccountIdentification VARCHAR(70) NOT NULL</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="Rectangle 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11072858" y="3581412"/>
+            <a:ext cx="3281316" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Success BIT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="Rectangle 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAB7DC1-451B-4B7C-A881-AD2E052F2942}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11072858" y="3086112"/>
+            <a:ext cx="3281316" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ChargeTotal MONEY NOT NULL</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>204832</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>90534</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="124" name="Group 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6FB8B0-42A2-4609-BFF3-C8CE91CF2A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15444832" y="4352937"/>
+          <a:ext cx="2933702" cy="1466850"/>
+          <a:chOff x="1828798" y="8763000"/>
+          <a:chExt cx="2743203" cy="1466850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="Rectangle 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC0488B-A762-475B-BE68-80A32EB85CF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828798" y="8763000"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t>MemberLoginInfo</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="Rectangle 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF0CCFD-BC6C-42D1-82A4-B1BDC28CBF17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9010650"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>PassID INT ID PK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="Rectangle 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6836576B-A569-40D2-BC17-E53B6DDA1303}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9248775"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>MemberID VARCHAR(10) FK NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="Rectangle 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CCAAF6-A011-4B47-9113-8C1106DEBFFD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9496425"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>Login VARCHAR(70) FK NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="Rectangle 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC523E1-F8C8-4ACA-8F7D-C77B8C0B15ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="9734550"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>PasswordHash VARCHAR(40)  NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="Rectangle 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224436BE-2F05-4DE1-AD48-721ECEDA518E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="9982200"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>ChangeDate DATE NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414384</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>204833</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connector: Elbow 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1928650-3E0C-4C3B-BA93-6391B553942F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="128" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10167984" y="4962537"/>
+          <a:ext cx="5276849" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38809"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176259</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309609</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142887</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="141" name="Group 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0448FC2-22E9-4C65-8AA8-FCAB4ADA9EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2614659" y="9448812"/>
+          <a:ext cx="2571750" cy="981075"/>
+          <a:chOff x="1828799" y="8763000"/>
+          <a:chExt cx="2743201" cy="981075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="Rectangle 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7746CCCB-4CBC-468C-A8E6-71C1B2333276}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="8763000"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t>MemberPhone</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="Rectangle 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EEFB54-3FD9-4B59-A7A2-19179E33B185}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9010650"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>PhoneNumber VARCHAR(15) PK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="Rectangle 154">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54701275-C6D9-4BB9-BAB5-8DD232E4F39A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9248775"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>MemberID VARCHAR(10) PK FK NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="Rectangle 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0958AE0F-CA34-4887-9A7E-ACFF31E935F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9496425"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>PhoneType VARCHAR(5) NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109583</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Elbow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9129FD04-A66E-4B66-A0B7-C7F3193BDCAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="155" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5186409" y="5981712"/>
+          <a:ext cx="2238374" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64894"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204834</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338184</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114312</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="157" name="Group 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DE5730-3BE8-4597-B880-49D36D48DE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2643234" y="10810887"/>
+          <a:ext cx="2571750" cy="733425"/>
+          <a:chOff x="1828799" y="8763000"/>
+          <a:chExt cx="2743201" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="Rectangle 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A909A0AE-8AAF-4289-B61A-60F237DC53D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="8763000"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t>MemberEmail</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="Rectangle 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23D3B75-58D1-4647-A5B1-EAF0B577EFD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9010650"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>Email VARCHAR(70) PK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="Rectangle 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE7911-1DF5-41B3-9BA8-6E8D39334800}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9248775"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>MemberID VARCHAR(10) PK FK NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338184</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109583</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Elbow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4F8F2E-EC89-4AD3-8D8D-A306B8CDE660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5214984" y="5981712"/>
+          <a:ext cx="2209799" cy="5438775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64655"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Rectangle 108">
+        <xdr:cNvPr id="162" name="Rectangle 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCCFC9E-FA9E-4787-8A8C-833EE4BB706E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4910,8 +6143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11072858" y="3095637"/>
-          <a:ext cx="3281316" cy="247650"/>
+          <a:off x="15554324" y="2314575"/>
+          <a:ext cx="3000375" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4919,13 +6152,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -4937,11 +6170,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>ChargeTotal MONEY NOT NULL</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>TRG: If what's being put in isn't a card number (CardPayment), an account number (OtherPayment), or an account email (OtherPayment), an error is raised.</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4949,74 +6181,55 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>100058</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104787</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
+      <xdr:rowOff>28587</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Rectangle 109">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connector: Elbow 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D744E081-166D-47C4-89DE-FEC89392D95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="3"/>
+          <a:endCxn id="162" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11072858" y="3343287"/>
-          <a:ext cx="3281316" cy="247650"/>
+        <a:xfrm flipV="1">
+          <a:off x="14354174" y="2733675"/>
+          <a:ext cx="1200150" cy="723912"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Result BIT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> NOT NULL CK</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5065,7 +6278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5098,9 +6311,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5133,6 +6363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5309,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H8:H43"/>
+  <dimension ref="H8:AJ68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,6 +6672,11 @@
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
     </row>
+    <row r="68" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ68" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -6232,6 +6232,121 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2ABF32-5756-45EB-A6E7-901A9824D961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15573374" y="1285875"/>
+          <a:ext cx="3000375" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>TRG: If a card that's linked in AccoundIdentification is expired, an error will raise.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connector: Elbow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BC36F3-30ED-49E4-837B-F1E4355680CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="1"/>
+          <a:endCxn id="109" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14354174" y="1604963"/>
+          <a:ext cx="1219200" cy="1852624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6558,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H8:AJ68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTCStudent\Desktop\OnlineService\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="15180" windowHeight="4500"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +96,7 @@
         <xdr:cNvPr id="1025" name="Text Box 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -222,23 +217,147 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>414384</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11548</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>155814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>61957</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>25767</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14558821" y="8728314"/>
+          <a:ext cx="1832628" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Check (&lt;=GETDATE())</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2209</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>14376</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>57162</xdr:rowOff>
+      <xdr:rowOff>163236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14549482" y="7916586"/>
+          <a:ext cx="1830576" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Check (&lt;GETDATE())</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19095</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514396</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1040" name="Group 1039">
+        <xdr:cNvPr id="65" name="Group 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,248 +365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10167984" y="7810512"/>
-          <a:ext cx="2085973" cy="247650"/>
-          <a:chOff x="8001567" y="7239000"/>
-          <a:chExt cx="2190184" cy="247650"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Straight Connector 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="48" idx="3"/>
-            <a:endCxn id="55" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8001567" y="7362825"/>
-            <a:ext cx="256608" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Rectangle 54">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8258175" y="7239000"/>
-            <a:ext cx="1933576" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>Check (&lt;=GETDATE())</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>414385</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>61958</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1038" name="Group 1037">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10167985" y="7562862"/>
-          <a:ext cx="2085973" cy="247650"/>
-          <a:chOff x="8001567" y="6991350"/>
-          <a:chExt cx="2190184" cy="247650"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="Rectangle 58">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8258175" y="6991350"/>
-            <a:ext cx="1933576" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>Check (&lt;GETDATE())</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="Straight Connector 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="46" idx="3"/>
-            <a:endCxn id="59" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8001567" y="7115175"/>
-            <a:ext cx="256608" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509633</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395334</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="65" name="Group 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3557633" y="4352937"/>
-          <a:ext cx="2933701" cy="1714500"/>
+          <a:off x="5474322" y="5053025"/>
+          <a:ext cx="2919847" cy="1714500"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743202" cy="1714500"/>
         </a:xfrm>
@@ -497,7 +376,7 @@
           <xdr:cNvPr id="69" name="Rectangle 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -544,7 +423,7 @@
           <xdr:cNvPr id="70" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -591,7 +470,7 @@
           <xdr:cNvPr id="71" name="Rectangle 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -638,7 +517,7 @@
           <xdr:cNvPr id="72" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -674,7 +553,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>SpeakerFirstName VARCHAR(20) NOT NULL</a:t>
+              <a:t>SeriesID INT NULL</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
@@ -685,7 +564,7 @@
           <xdr:cNvPr id="73" name="Rectangle 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -721,7 +600,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>SpeakerMiddleName VARCHAR(20) NULL</a:t>
+              <a:t>OrganizerID INT NOT NULL</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
@@ -732,7 +611,7 @@
           <xdr:cNvPr id="74" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -767,10 +646,20 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>SpeakerLastName VARCHAR(20) NOT NULL</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>EventDate DATE NOT NULL</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -779,7 +668,7 @@
           <xdr:cNvPr id="75" name="Rectangle 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -815,7 +704,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>EventDate DATE NOT NULL</a:t>
+              <a:t>EventDescription VARCHAR(MAX) NULL</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
@@ -826,23 +715,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71483</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200070</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>166734</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="78" name="Group 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -850,8 +739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3729083" y="6810387"/>
-          <a:ext cx="2533651" cy="733425"/>
+          <a:off x="5655297" y="7510475"/>
+          <a:ext cx="2519797" cy="733425"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="733425"/>
         </a:xfrm>
@@ -861,7 +750,7 @@
           <xdr:cNvPr id="79" name="Rectangle 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -908,7 +797,7 @@
           <xdr:cNvPr id="80" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -955,7 +844,7 @@
           <xdr:cNvPr id="81" name="Rectangle 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1002,23 +891,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>166734</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295321</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133362</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1026" name="Elbow Connector 1025">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,8 +918,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6357984" y="5981712"/>
-          <a:ext cx="1181099" cy="1200150"/>
+          <a:off x="8175094" y="6681800"/>
+          <a:ext cx="3365402" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1055,23 +944,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509633</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152411</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19094</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71483</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180986</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200069</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119074</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1028" name="Elbow Connector 1027">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,12 +971,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3605258" y="4724411"/>
+          <a:off x="5505494" y="5424499"/>
           <a:ext cx="180975" cy="2695575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -133333"/>
+            <a:gd name="adj1" fmla="val -126316"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1110,23 +999,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>214358</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>309609</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>12</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>223931</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>128600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="113" name="Group 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,8 +1023,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7529558" y="9363087"/>
-          <a:ext cx="2533651" cy="733425"/>
+          <a:off x="11645271" y="10063175"/>
+          <a:ext cx="2519796" cy="733425"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="733425"/>
         </a:xfrm>
@@ -1145,7 +1034,7 @@
           <xdr:cNvPr id="114" name="Rectangle 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000072000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1192,7 +1081,7 @@
           <xdr:cNvPr id="115" name="Rectangle 114">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1239,7 +1128,7 @@
           <xdr:cNvPr id="116" name="Rectangle 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1286,23 +1175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>223883</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38112</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120887</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>319134</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9537</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>216138</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>138125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="117" name="Group 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,8 +1199,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7539083" y="10706112"/>
-          <a:ext cx="2533651" cy="733425"/>
+          <a:off x="11637478" y="11406200"/>
+          <a:ext cx="2519796" cy="733425"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="733425"/>
         </a:xfrm>
@@ -1321,7 +1210,7 @@
           <xdr:cNvPr id="118" name="Rectangle 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1368,7 +1257,7 @@
           <xdr:cNvPr id="119" name="Rectangle 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000077000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1304,7 @@
           <xdr:cNvPr id="120" name="Rectangle 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,23 +1351,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176305</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176305</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1033" name="Straight Connector 1032">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1378,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8796384" y="8791587"/>
+          <a:off x="12905169" y="9491675"/>
           <a:ext cx="0" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1515,23 +1404,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>12</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>168512</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>128600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271509</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38112</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176305</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1035" name="Straight Connector 1034">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,9 +1430,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8796384" y="10096512"/>
-          <a:ext cx="9525" cy="609600"/>
+        <a:xfrm flipH="1">
+          <a:off x="12897376" y="10796600"/>
+          <a:ext cx="7793" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1568,23 +1457,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>242933</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>157255</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>557260</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>462057</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>128600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="126" name="Group 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,8 +1481,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12434933" y="5667387"/>
-          <a:ext cx="2752727" cy="1952625"/>
+          <a:off x="16522937" y="6367475"/>
+          <a:ext cx="2729347" cy="1952625"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743202" cy="1952625"/>
         </a:xfrm>
@@ -1603,7 +1492,7 @@
           <xdr:cNvPr id="130" name="Rectangle 129">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1650,7 +1539,7 @@
           <xdr:cNvPr id="131" name="Rectangle 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000083000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1697,7 +1586,7 @@
           <xdr:cNvPr id="132" name="Rectangle 131">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1744,7 +1633,7 @@
           <xdr:cNvPr id="133" name="Rectangle 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1791,7 +1680,7 @@
           <xdr:cNvPr id="134" name="Rectangle 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1838,7 +1727,7 @@
           <xdr:cNvPr id="135" name="Rectangle 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000087000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1885,7 +1774,7 @@
           <xdr:cNvPr id="136" name="Rectangle 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1932,7 +1821,7 @@
           <xdr:cNvPr id="137" name="Rectangle 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1979,23 +1868,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>414384</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>242933</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180987</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>157255</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1037" name="Elbow Connector 1036">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,8 +1895,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10320384" y="5981712"/>
-          <a:ext cx="2305049" cy="295275"/>
+          <a:off x="14269842" y="6681800"/>
+          <a:ext cx="2253095" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2032,23 +1921,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104787</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>604884</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104787</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509681</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="143" name="Group 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,8 +1945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7424783" y="3152787"/>
-          <a:ext cx="2933701" cy="1714500"/>
+          <a:off x="11540496" y="3852875"/>
+          <a:ext cx="2910321" cy="1714500"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743202" cy="1714500"/>
         </a:xfrm>
@@ -2067,7 +1956,7 @@
           <xdr:cNvPr id="144" name="Rectangle 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000090000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2114,7 +2003,7 @@
           <xdr:cNvPr id="145" name="Rectangle 144">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000091000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2161,7 +2050,7 @@
           <xdr:cNvPr id="146" name="Rectangle 145">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000092000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2208,7 +2097,7 @@
           <xdr:cNvPr id="147" name="Rectangle 146">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000093000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2255,7 +2144,7 @@
           <xdr:cNvPr id="148" name="Rectangle 147">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000094000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2302,7 +2191,7 @@
           <xdr:cNvPr id="149" name="Rectangle 148">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000095000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2349,7 +2238,7 @@
           <xdr:cNvPr id="150" name="Rectangle 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000096000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2396,143 +2285,85 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>604884</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314838</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>14340</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171462</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>64734</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12939</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="151" name="Group 150">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rectangle 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10358484" y="4238637"/>
-          <a:ext cx="2457456" cy="504825"/>
-          <a:chOff x="11296754" y="3743325"/>
-          <a:chExt cx="2592267" cy="504825"/>
+          <a:off x="14862111" y="5061189"/>
+          <a:ext cx="2174441" cy="476250"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="152" name="Rectangle 151">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11593755" y="3743325"/>
-            <a:ext cx="2295266" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>Check (IN ('Approved', 'Declined', 'Invalid Card'))</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="153" name="Straight Connector 152">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="150" idx="3"/>
-            <a:endCxn id="152" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11296754" y="3981450"/>
-            <a:ext cx="297001" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Check (IN ('Approved', 'Declined', 'Invalid Card'))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109584</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57162</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23906</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109585</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23907</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="97" name="Elbow Connector 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2374,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7539084" y="4248162"/>
+          <a:off x="11540497" y="4948250"/>
           <a:ext cx="1" cy="1733550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2571,23 +2402,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>404859</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391860</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>538209</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525209</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57164</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="165" name="Group 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,8 +2426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2233659" y="8115312"/>
-          <a:ext cx="2571750" cy="981075"/>
+          <a:off x="5240951" y="8601089"/>
+          <a:ext cx="2557894" cy="981075"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="981075"/>
         </a:xfrm>
@@ -2606,7 +2437,7 @@
           <xdr:cNvPr id="166" name="Rectangle 165">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2653,7 +2484,7 @@
           <xdr:cNvPr id="167" name="Rectangle 166">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2700,7 +2531,7 @@
           <xdr:cNvPr id="168" name="Rectangle 167">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2747,7 +2578,7 @@
           <xdr:cNvPr id="169" name="Rectangle 168">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2794,23 +2625,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>538209</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180987</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525209</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104787</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="100" name="Elbow Connector 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,8 +2652,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4805409" y="8181987"/>
-          <a:ext cx="2619374" cy="304800"/>
+          <a:off x="7798845" y="8882075"/>
+          <a:ext cx="3741651" cy="90489"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2849,340 +2680,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604884</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381033</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>261985</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19062</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="176" name="Group 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4262484" y="647712"/>
-          <a:ext cx="2705101" cy="1466850"/>
-          <a:chOff x="1828799" y="8763000"/>
-          <a:chExt cx="2743202" cy="1466850"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="177" name="Rectangle 176">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="8763000"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-              <a:t>CardPayment</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="178" name="Rectangle 177">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="9010650"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>CardID INT ID PK</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="179" name="Rectangle 178">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="9248775"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>MemberID VARCHAR(10) FK NOT NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="180" name="Rectangle 179">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828799" y="9496425"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>CardType VARCHAR(60) NOT NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="181" name="Rectangle 180">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828800" y="9734550"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>CardNumber BIGINT  NOT NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="182" name="Rectangle 181">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1828800" y="9982200"/>
-            <a:ext cx="2743201" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>ExpirationDate DATE NOT NULL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="103" name="Elbow Connector 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,11 +2707,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6967584" y="1257312"/>
-          <a:ext cx="457199" cy="4724400"/>
+          <a:off x="8866942" y="1957400"/>
+          <a:ext cx="2673554" cy="4724400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -3219,23 +2735,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>271510</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85737</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390572</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="186" name="Group 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,8 +2759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="2619387"/>
-          <a:ext cx="2881360" cy="1466850"/>
+          <a:off x="6012439" y="3319475"/>
+          <a:ext cx="2864042" cy="1466850"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743202" cy="1466850"/>
         </a:xfrm>
@@ -3254,7 +2770,7 @@
           <xdr:cNvPr id="187" name="Rectangle 186">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3301,7 +2817,7 @@
           <xdr:cNvPr id="188" name="Rectangle 187">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3348,7 +2864,7 @@
           <xdr:cNvPr id="189" name="Rectangle 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3395,7 +2911,7 @@
           <xdr:cNvPr id="190" name="Rectangle 189">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3442,7 +2958,7 @@
           <xdr:cNvPr id="191" name="Rectangle 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3489,7 +3005,7 @@
           <xdr:cNvPr id="192" name="Rectangle 191">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3536,23 +3052,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>380992</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101692</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152392</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>530508</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>74466</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301908</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="201" name="Rectangle 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380992" y="3530692"/>
+          <a:off x="1371592" y="4254592"/>
           <a:ext cx="2587916" cy="544274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3598,23 +3114,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314319</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15970</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85719</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463835</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235235</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="209" name="Rectangle 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,8 +3138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="920455" y="1920970"/>
-          <a:ext cx="2574062" cy="610949"/>
+          <a:off x="1914519" y="2644870"/>
+          <a:ext cx="2587916" cy="610949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,23 +3176,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463835</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130945</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="111" name="Elbow Connector 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,8 +3203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3494517" y="2226445"/>
-          <a:ext cx="580451" cy="1250192"/>
+          <a:off x="4502435" y="2950345"/>
+          <a:ext cx="1541177" cy="1226380"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3713,23 +3229,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463835</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130945</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152412</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="121" name="Elbow Connector 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,8 +3256,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3494517" y="2226445"/>
-          <a:ext cx="580452" cy="1735967"/>
+          <a:off x="4502435" y="2950345"/>
+          <a:ext cx="1541178" cy="1712155"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3766,23 +3282,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>604883</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57162</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>100058</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95262</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>14380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="123" name="Elbow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,11 +3309,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10358483" y="2724162"/>
-          <a:ext cx="714375" cy="800100"/>
+          <a:off x="14530480" y="3424250"/>
+          <a:ext cx="723900" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -3819,85 +3337,401 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604884</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114346</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>261984</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385249</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="Rectangle 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4262484" y="2114562"/>
-          <a:ext cx="2705100" cy="247650"/>
+          <a:off x="6175710" y="1347800"/>
+          <a:ext cx="2695448" cy="1715900"/>
+          <a:chOff x="5183887" y="623900"/>
+          <a:chExt cx="2686891" cy="1715900"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>SecurityCode SMALLINT NOT NULL</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="176" name="Group 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5183887" y="623900"/>
+            <a:ext cx="2682689" cy="1466850"/>
+            <a:chOff x="1828799" y="8763000"/>
+            <a:chExt cx="2743202" cy="1466850"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="177" name="Rectangle 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="8763000"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t>CardPayment</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="178" name="Rectangle 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9010650"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>CardID INT ID PK</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="179" name="Rectangle 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9248775"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>MemberID VARCHAR(10) FK NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="180" name="Rectangle 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9496425"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>CardType VARCHAR(60) NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="181" name="Rectangle 180">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="9734550"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>CardNumber BIGINT  NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="182" name="Rectangle 181">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="9982200"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>ExpirationDate DATE NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="224" name="Rectangle 223">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5188090" y="2092150"/>
+            <a:ext cx="2682688" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>SecurityCode SMALLINT NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>530508</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301908</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>183329</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="231" name="Elbow Connector 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3908,8 +3742,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2968908" y="3476637"/>
-          <a:ext cx="1126842" cy="326192"/>
+          <a:off x="3959508" y="4176725"/>
+          <a:ext cx="2084104" cy="350004"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3934,23 +3768,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63205</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44545</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444205</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212721</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="233" name="Rectangle 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3958,7 +3792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="672805" y="2711545"/>
+          <a:off x="1663405" y="3435445"/>
           <a:ext cx="2587916" cy="660305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3996,23 +3830,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212721</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184198</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593721</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="234" name="Elbow Connector 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4023,8 +3857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3260721" y="3041698"/>
-          <a:ext cx="835029" cy="434939"/>
+          <a:off x="4251321" y="3765598"/>
+          <a:ext cx="1792291" cy="411127"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4049,23 +3883,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212721</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184198</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593721</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95262</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="236" name="Elbow Connector 235">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000EC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4076,8 +3910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3260721" y="3041698"/>
-          <a:ext cx="835030" cy="673064"/>
+          <a:off x="4251321" y="3765598"/>
+          <a:ext cx="1792292" cy="649252"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4102,23 +3936,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>271509</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180987</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390571</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="241" name="Elbow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,11 +3963,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6977109" y="3228987"/>
-          <a:ext cx="447674" cy="2752725"/>
+          <a:off x="8876480" y="3929075"/>
+          <a:ext cx="2664016" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -4155,23 +3991,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85737</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>414385</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>328707</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFDF5B8-335F-4847-B26E-A4F119DFABD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EFDF5B8-335F-4847-B26E-A4F119DFABD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,8 +4015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7424783" y="5610237"/>
-          <a:ext cx="2743202" cy="3181350"/>
+          <a:off x="11540496" y="6310325"/>
+          <a:ext cx="2729347" cy="3181350"/>
           <a:chOff x="7424783" y="5610237"/>
           <a:chExt cx="2743202" cy="3181350"/>
         </a:xfrm>
@@ -4190,7 +4026,7 @@
           <xdr:cNvPr id="4" name="Group 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4209,7 +4045,7 @@
             <xdr:cNvPr id="3" name="Group 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4228,7 +4064,7 @@
               <xdr:cNvPr id="37" name="Rectangle 36">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4275,7 +4111,7 @@
               <xdr:cNvPr id="38" name="Rectangle 37">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4322,7 +4158,7 @@
               <xdr:cNvPr id="39" name="Rectangle 38">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4369,7 +4205,7 @@
               <xdr:cNvPr id="40" name="Rectangle 39">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4416,7 +4252,7 @@
               <xdr:cNvPr id="41" name="Rectangle 40">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4463,7 +4299,7 @@
               <xdr:cNvPr id="42" name="Rectangle 41">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4510,7 +4346,7 @@
               <xdr:cNvPr id="43" name="Rectangle 42">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4557,7 +4393,7 @@
               <xdr:cNvPr id="44" name="Rectangle 43">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4604,7 +4440,7 @@
               <xdr:cNvPr id="46" name="Rectangle 45">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4652,7 +4488,7 @@
             <xdr:cNvPr id="48" name="Rectangle 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4699,7 +4535,7 @@
             <xdr:cNvPr id="49" name="Rectangle 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4746,7 +4582,7 @@
             <xdr:cNvPr id="50" name="Rectangle 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4794,7 +4630,7 @@
           <xdr:cNvPr id="112" name="Rectangle 111">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9C7671-D0B0-479E-B119-5C66C562D23B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B9C7671-D0B0-479E-B119-5C66C562D23B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4841,23 +4677,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>100058</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9537</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>14380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19062</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247697</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147650</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1791AA90-C287-435A-BEED-15E9E9B30AEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1791AA90-C287-435A-BEED-15E9E9B30AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4865,8 +4701,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11072858" y="2105037"/>
-          <a:ext cx="3281317" cy="1724025"/>
+          <a:off x="15167789" y="2805125"/>
+          <a:ext cx="3263999" cy="1724025"/>
           <a:chOff x="11072858" y="2105037"/>
           <a:chExt cx="3281317" cy="1724025"/>
         </a:xfrm>
@@ -4876,7 +4712,7 @@
           <xdr:cNvPr id="214" name="Group 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4895,7 +4731,7 @@
             <xdr:cNvPr id="215" name="Rectangle 214">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D7000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4942,7 +4778,7 @@
             <xdr:cNvPr id="216" name="Rectangle 215">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D8000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4989,7 +4825,7 @@
             <xdr:cNvPr id="218" name="Rectangle 217">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DA000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5036,7 +4872,7 @@
             <xdr:cNvPr id="219" name="Rectangle 218">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DB000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5085,7 +4921,7 @@
           <xdr:cNvPr id="109" name="Rectangle 108">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5133,7 +4969,7 @@
           <xdr:cNvPr id="110" name="Rectangle 109">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5190,7 +5026,7 @@
           <xdr:cNvPr id="122" name="Rectangle 121">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAB7DC1-451B-4B7C-A881-AD2E052F2942}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DAB7DC1-451B-4B7C-A881-AD2E052F2942}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5238,23 +5074,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>204832</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161937</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>119154</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>90534</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104787</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>604931</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="124" name="Group 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6FB8B0-42A2-4609-BFF3-C8CE91CF2A07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB6FB8B0-42A2-4609-BFF3-C8CE91CF2A07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5262,8 +5098,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15444832" y="4352937"/>
-          <a:ext cx="2933702" cy="1466850"/>
+          <a:off x="19515518" y="5053025"/>
+          <a:ext cx="2910322" cy="1466850"/>
           <a:chOff x="1828798" y="8763000"/>
           <a:chExt cx="2743203" cy="1466850"/>
         </a:xfrm>
@@ -5273,7 +5109,7 @@
           <xdr:cNvPr id="125" name="Rectangle 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC0488B-A762-475B-BE68-80A32EB85CF0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC0488B-A762-475B-BE68-80A32EB85CF0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5320,7 +5156,7 @@
           <xdr:cNvPr id="127" name="Rectangle 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF0CCFD-BC6C-42D1-82A4-B1BDC28CBF17}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AF0CCFD-BC6C-42D1-82A4-B1BDC28CBF17}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5367,7 +5203,7 @@
           <xdr:cNvPr id="128" name="Rectangle 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6836576B-A569-40D2-BC17-E53B6DDA1303}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6836576B-A569-40D2-BC17-E53B6DDA1303}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5414,7 +5250,7 @@
           <xdr:cNvPr id="129" name="Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CCAAF6-A011-4B47-9113-8C1106DEBFFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9CCAAF6-A011-4B47-9113-8C1106DEBFFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5461,7 +5297,7 @@
           <xdr:cNvPr id="138" name="Rectangle 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC523E1-F8C8-4ACA-8F7D-C77B8C0B15ED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAC523E1-F8C8-4ACA-8F7D-C77B8C0B15ED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5508,7 +5344,7 @@
           <xdr:cNvPr id="139" name="Rectangle 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224436BE-2F05-4DE1-AD48-721ECEDA518E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{224436BE-2F05-4DE1-AD48-721ECEDA518E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5555,23 +5391,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>414384</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9537</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>204833</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>119155</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Connector: Elbow 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1928650-3E0C-4C3B-BA93-6391B553942F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1928650-3E0C-4C3B-BA93-6391B553942F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5582,12 +5418,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10167984" y="4962537"/>
-          <a:ext cx="5276849" cy="1019175"/>
+          <a:off x="14269842" y="5662625"/>
+          <a:ext cx="5245677" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 38809"/>
+            <a:gd name="adj1" fmla="val 31512"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -5610,23 +5446,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176259</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235568</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>309609</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355929</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>80975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="141" name="Group 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0448FC2-22E9-4C65-8AA8-FCAB4ADA9EB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0448FC2-22E9-4C65-8AA8-FCAB4ADA9EB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5634,8 +5470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2614659" y="9448812"/>
-          <a:ext cx="2571750" cy="981075"/>
+          <a:off x="5084659" y="10148900"/>
+          <a:ext cx="2544906" cy="981075"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="981075"/>
         </a:xfrm>
@@ -5645,7 +5481,7 @@
           <xdr:cNvPr id="142" name="Rectangle 141">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7746CCCB-4CBC-468C-A8E6-71C1B2333276}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7746CCCB-4CBC-468C-A8E6-71C1B2333276}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5692,7 +5528,7 @@
           <xdr:cNvPr id="154" name="Rectangle 153">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EEFB54-3FD9-4B59-A7A2-19179E33B185}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95EEFB54-3FD9-4B59-A7A2-19179E33B185}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5739,7 +5575,7 @@
           <xdr:cNvPr id="155" name="Rectangle 154">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54701275-C6D9-4BB9-BAB5-8DD232E4F39A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54701275-C6D9-4BB9-BAB5-8DD232E4F39A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5786,7 +5622,7 @@
           <xdr:cNvPr id="156" name="Rectangle 155">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0958AE0F-CA34-4887-9A7E-ACFF31E935F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0958AE0F-CA34-4887-9A7E-ACFF31E935F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5833,23 +5669,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>309609</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355929</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152412</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>90500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Connector: Elbow 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9129FD04-A66E-4B66-A0B7-C7F3193BDCAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9129FD04-A66E-4B66-A0B7-C7F3193BDCAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5860,12 +5696,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5186409" y="5981712"/>
-          <a:ext cx="2238374" cy="4076700"/>
+          <a:off x="7629565" y="6681800"/>
+          <a:ext cx="3910931" cy="4076700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 64894"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -5888,23 +5724,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>204834</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142887</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>471972</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338184</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595796</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69718</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="157" name="Group 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DE5730-3BE8-4597-B880-49D36D48DE0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6DE5730-3BE8-4597-B880-49D36D48DE0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5912,8 +5748,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2643234" y="10810887"/>
-          <a:ext cx="2571750" cy="733425"/>
+          <a:off x="4108790" y="11528293"/>
+          <a:ext cx="2548370" cy="733425"/>
           <a:chOff x="1828799" y="8763000"/>
           <a:chExt cx="2743201" cy="733425"/>
         </a:xfrm>
@@ -5923,7 +5759,7 @@
           <xdr:cNvPr id="158" name="Rectangle 157">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A909A0AE-8AAF-4289-B61A-60F237DC53D4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A909A0AE-8AAF-4289-B61A-60F237DC53D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5970,7 +5806,7 @@
           <xdr:cNvPr id="159" name="Rectangle 158">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23D3B75-58D1-4647-A5B1-EAF0B577EFD7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F23D3B75-58D1-4647-A5B1-EAF0B577EFD7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6017,7 +5853,7 @@
           <xdr:cNvPr id="160" name="Rectangle 159">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE7911-1DF5-41B3-9BA8-6E8D39334800}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4DE7911-1DF5-41B3-9BA8-6E8D39334800}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6064,23 +5900,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338184</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595796</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109583</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180987</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>136393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Connector: Elbow 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4F8F2E-EC89-4AD3-8D8D-A306B8CDE660}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC4F8F2E-EC89-4AD3-8D8D-A306B8CDE660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6091,12 +5927,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5214984" y="5981712"/>
-          <a:ext cx="2209799" cy="5438775"/>
+          <a:off x="6657160" y="6681800"/>
+          <a:ext cx="4883336" cy="5456093"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 64655"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -6119,23 +5955,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>228646</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>181021</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="162" name="Rectangle 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCCFC9E-FA9E-4787-8A8C-833EE4BB706E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CCCFC9E-FA9E-4787-8A8C-833EE4BB706E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6143,7 +5979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15554324" y="2314575"/>
+          <a:off x="19735846" y="3014663"/>
           <a:ext cx="3000375" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6181,23 +6017,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247696</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>228646</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Connector: Elbow 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D744E081-166D-47C4-89DE-FEC89392D95D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D744E081-166D-47C4-89DE-FEC89392D95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6208,7 +6044,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14354174" y="2733675"/>
+          <a:off x="18535696" y="3433763"/>
           <a:ext cx="1200150" cy="723912"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6234,23 +6070,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>247696</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>200071</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="140" name="Rectangle 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2ABF32-5756-45EB-A6E7-901A9824D961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F2ABF32-5756-45EB-A6E7-901A9824D961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6258,7 +6094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15573374" y="1285875"/>
+          <a:off x="19754896" y="1985963"/>
           <a:ext cx="3000375" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6296,23 +6132,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247696</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28587</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>247696</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Connector: Elbow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BC36F3-30ED-49E4-837B-F1E4355680CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04BC36F3-30ED-49E4-837B-F1E4355680CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,7 +6159,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="14354174" y="1604963"/>
+          <a:off x="18535696" y="2305051"/>
           <a:ext cx="1219200" cy="1852624"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6339,6 +6175,1363 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14537</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>497906</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>125231</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1226810" y="5218465"/>
+          <a:ext cx="2907914" cy="1955266"/>
+          <a:chOff x="221109" y="4581537"/>
+          <a:chExt cx="2916831" cy="1955266"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="161" name="Group 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="223883" y="4581537"/>
+            <a:ext cx="2911289" cy="1714500"/>
+            <a:chOff x="1828799" y="8763000"/>
+            <a:chExt cx="2743202" cy="1714500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="163" name="Rectangle 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="8763000"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t>EventStaff</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="164" name="Rectangle 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9010650"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>StaffID INT ID PK</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="170" name="Rectangle 169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9248775"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>StaffType VARCHAR(20) NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="171" name="Rectangle 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828799" y="9496425"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>StaffFirstName VARCHAR(20) NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="172" name="Rectangle 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="9734550"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>StaffMiddleName VARCHAR(20) NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="173" name="Rectangle 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="9982200"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>StaffLastName VARCHAR(20) NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="174" name="Rectangle 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="10229850"/>
+              <a:ext cx="2743201" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                <a:t>StaffEmail VARCHAR(70) NOT NULL</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="Rectangle 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="221109" y="6289153"/>
+            <a:ext cx="2916831" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>StaffPhone VARCHAR(15) NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495146</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19096</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="164" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4131964" y="5589940"/>
+          <a:ext cx="1342359" cy="558460"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84913</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>576749</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96561</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="183" name="Group 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="691049" y="7526061"/>
+          <a:ext cx="2916382" cy="1714500"/>
+          <a:chOff x="1828799" y="8763000"/>
+          <a:chExt cx="2743202" cy="1714500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="Rectangle 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="8763000"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t>Series</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="Rectangle 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9010650"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>SeriesID INT ID PK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="Rectangle 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9248775"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>SeriesTitle VARCHAR(100) NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="Rectangle 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9496425"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>StartDate DATE NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="Rectangle 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="9734550"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>EndDate DATE NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="Rectangle 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="9982200"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AdminID INT NOT NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="197" name="Rectangle 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="10229850"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>SeriesDescription VARCHAR(MAX) NULL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>576748</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19095</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87036</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3607430" y="5910275"/>
+          <a:ext cx="1866892" cy="1987261"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84914</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17303</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="196" idx="1"/>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="691050" y="5589940"/>
+          <a:ext cx="538526" cy="3279146"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42449"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>397973</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>48502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>483700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19927</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="198" name="Group 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8883882" y="12621502"/>
+          <a:ext cx="2510273" cy="733425"/>
+          <a:chOff x="1828799" y="8763000"/>
+          <a:chExt cx="2743201" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="Rectangle 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="8763000"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t>EventInterests</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="200" name="Rectangle 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9010650"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>InterestID INT  PK FK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="Rectangle 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828799" y="9248775"/>
+            <a:ext cx="2743201" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>EventID INT PK FK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>483700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120887</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="Elbow Connector 228"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="3"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11394155" y="11777675"/>
+          <a:ext cx="243323" cy="1215302"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514395</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>397973</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>86602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="237" name="Elbow Connector 236"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="1"/>
+          <a:endCxn id="70" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8439195" y="5424500"/>
+          <a:ext cx="493178" cy="7806602"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>328707</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>39411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2209</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Elbow Connector 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14269843" y="8040411"/>
+          <a:ext cx="279639" cy="346364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11548</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="Elbow Connector 243"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14269842" y="8634425"/>
+          <a:ext cx="288979" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509681</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314838</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="Elbow Connector 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="3"/>
+          <a:endCxn id="152" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14450817" y="5299314"/>
+          <a:ext cx="411294" cy="144236"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -6393,7 +7586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6426,26 +7619,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6478,23 +7654,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6673,8 +7832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H8:AJ68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
